--- a/models/calculation engines/cbix2/outputs/capesize/frieght_calcs_to_actual_nominated_port/frieght_calculations-actual_port-first_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/frieght_calcs_to_actual_nominated_port/frieght_calculations-actual_port-first_leg.xlsx
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>329.22</v>
+        <v>329.2199999999999</v>
       </c>
       <c r="E32" t="n">
         <v>84714</v>
